--- a/biology/Zoologie/Bostrichinae/Bostrichinae.xlsx
+++ b/biology/Zoologie/Bostrichinae/Bostrichinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bostrichinae sont une sous-famille d'insectes coléoptères de la famille des Bostrichidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Genres et espèces rencontrés en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Apate
 Apate monachus Fabricius, 1775
@@ -584,13 +598,15 @@
           <t>Liste des tribus, genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (28 août 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (28 août 2014) :
 tribu Bostrichini Latreille, 1802
 tribu Sinoxylonini Lesne, 1898
 tribu Xyloperthini Lesne, 1921
-Selon NCBI  (28 août 2014)[2] :
+Selon NCBI  (28 août 2014) :
 genre Apatides
 Apatides fortis
 genre Bostrichus
@@ -610,7 +626,7 @@
 Xyloprista hexacantha
 genre Xylothrips
 Xylothrips flavipes
-Selon Paleobiology Database                   (28 août 2014)[3] :
+Selon Paleobiology Database                   (28 août 2014) :
 genre Discoclavata</t>
         </is>
       </c>
